--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cd19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cd19.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04150766666666667</v>
+        <v>0.04150766666666666</v>
       </c>
       <c r="N2">
         <v>0.124523</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1724094957005556</v>
+        <v>0.158576927425</v>
       </c>
       <c r="R2">
-        <v>1.551685461305</v>
+        <v>1.427192346825</v>
       </c>
       <c r="S2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="T2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>421.767242</v>
       </c>
       <c r="I3">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J3">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04150766666666667</v>
+        <v>0.04150766666666666</v>
       </c>
       <c r="N3">
         <v>0.124523</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.835524697285112</v>
+        <v>5.835524697285111</v>
       </c>
       <c r="R3">
         <v>52.519722275566</v>
       </c>
       <c r="S3">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="T3">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H4">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I4">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J4">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04150766666666667</v>
+        <v>0.04150766666666666</v>
       </c>
       <c r="N4">
         <v>0.124523</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2956580027955555</v>
+        <v>1.266426720136667</v>
       </c>
       <c r="R4">
-        <v>2.66092202516</v>
+        <v>11.39784048123</v>
       </c>
       <c r="S4">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="T4">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H5">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I5">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J5">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04150766666666667</v>
+        <v>0.04150766666666666</v>
       </c>
       <c r="N5">
         <v>0.124523</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01606349467177778</v>
+        <v>0.010742723733</v>
       </c>
       <c r="R5">
-        <v>0.144571452046</v>
+        <v>0.09668451359699999</v>
       </c>
       <c r="S5">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="T5">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H6">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I6">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J6">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04150766666666667</v>
+        <v>0.04150766666666666</v>
       </c>
       <c r="N6">
         <v>0.124523</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.283143739184222</v>
+        <v>0.465460498804</v>
       </c>
       <c r="R6">
-        <v>11.548293652658</v>
+        <v>4.189144489236</v>
       </c>
       <c r="S6">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="T6">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
     </row>
   </sheetData>
